--- a/cali_housing/cali _results_28.5.xlsx
+++ b/cali_housing/cali _results_28.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22c422f4a98a0289/Documents/Documents/MSc Data Analytics/Modules/Dissertation/cali_housing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22c422f4a98a0289/Documents/GitHub/Dissertation-data/cali_housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="14_{4C3404D5-CD97-4B4E-8CA5-8A7CF8D04D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616EE42D-33E9-497C-820C-D7BF06738453}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="14_{4C3404D5-CD97-4B4E-8CA5-8A7CF8D04D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED25439C-E81B-4758-B2A7-CA0266DE3955}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="882" xr2:uid="{3E1D3942-8DFE-41DF-AA66-4C90DB2B3276}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="15660" windowHeight="21000" tabRatio="882" firstSheet="1" activeTab="3" xr2:uid="{3E1D3942-8DFE-41DF-AA66-4C90DB2B3276}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="53">
   <si>
     <t>model</t>
   </si>
@@ -181,13 +181,35 @@
   <si>
     <t>Model</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>weighted rmse</t>
+  </si>
+  <si>
+    <t>w sq diff</t>
+  </si>
+  <si>
+    <t>tune rmse</t>
+  </si>
+  <si>
+    <t>tune n</t>
+  </si>
+  <si>
+    <t>mean rmse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -672,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,6 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1066,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5551A07-34CF-495E-8E88-99A6E620CAFF}">
   <dimension ref="A4:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1098,7 +1121,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <f>'random_no_lag _results'!A8</f>
         <v>random_no_lag</v>
       </c>
@@ -1108,50 +1131,50 @@
       </c>
       <c r="C5" s="1">
         <f>'random_no_lag _results'!C8</f>
-        <v>0.32891793898409016</v>
+        <v>0.32787559920915643</v>
       </c>
       <c r="D5" s="1">
         <f>'random_no_lag _results'!D8</f>
-        <v>0.14367934561750637</v>
+        <v>0.14290148500080466</v>
       </c>
       <c r="E5" s="1">
         <f>'random_no_lag _results'!E8</f>
-        <v>0.37121520323306806</v>
+        <v>0.35485517875394901</v>
       </c>
       <c r="F5" s="1">
         <f>'random_no_lag _results'!F8</f>
-        <v>0.94874387782853309</v>
+        <v>0.94915556342852125</v>
       </c>
       <c r="G5" s="1">
         <f>'random_no_lag _results'!G8</f>
-        <v>0.52721113054551016</v>
+        <v>0.56937317265259546</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="str">
         <f>'random_no_lag _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C6" s="1">
         <f>'random_no_lag _results'!C9</f>
-        <v>1.2135006216419355E-2</v>
+        <v>1.0304686980669994E-2</v>
       </c>
       <c r="D6" s="1">
         <f>'random_no_lag _results'!D9</f>
-        <v>3.5486253209919636E-3</v>
+        <v>2.6537322771684421E-3</v>
       </c>
       <c r="E6" s="1">
         <f>'random_no_lag _results'!E9</f>
-        <v>4.7433534786151567E-2</v>
+        <v>4.584507987506381E-2</v>
       </c>
       <c r="F6" s="1">
         <f>'random_no_lag _results'!F9</f>
-        <v>2.030868490556983E-3</v>
+        <v>1.7495272427605591E-3</v>
       </c>
       <c r="G6" s="1">
         <f>'random_no_lag _results'!G9</f>
-        <v>6.434651236461246E-2</v>
+        <v>6.3114571067576619E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,7 +1186,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="6" t="str">
         <f>'spatial_no_lag _results'!A8</f>
         <v>spatial_no_lag</v>
       </c>
@@ -1173,50 +1196,50 @@
       </c>
       <c r="C8" s="1">
         <f>'spatial_no_lag _results'!C8</f>
-        <v>0.39640688197719198</v>
+        <v>0.40056232012948112</v>
       </c>
       <c r="D8" s="1">
         <f>'spatial_no_lag _results'!D8</f>
-        <v>0.14071625271431443</v>
+        <v>0.13995022311309641</v>
       </c>
       <c r="E8" s="1">
         <f>'spatial_no_lag _results'!E8</f>
-        <v>0.37089069595912838</v>
+        <v>0.35527954282432772</v>
       </c>
       <c r="F8" s="1">
         <f>'spatial_no_lag _results'!F8</f>
-        <v>0.95014178699752261</v>
+        <v>0.95050445741316769</v>
       </c>
       <c r="G8" s="1">
         <f>'spatial_no_lag _results'!G8</f>
-        <v>0.52215480962579697</v>
+        <v>0.56646386194687171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="str">
         <f>'spatial_no_lag _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C9" s="1">
         <f>'spatial_no_lag _results'!C9</f>
-        <v>1.3676131907893062E-2</v>
+        <v>1.4216544638045735E-2</v>
       </c>
       <c r="D9" s="1">
         <f>'spatial_no_lag _results'!D9</f>
-        <v>4.3621494567028926E-3</v>
+        <v>3.3489007839033391E-3</v>
       </c>
       <c r="E9" s="1">
         <f>'spatial_no_lag _results'!E9</f>
-        <v>4.4344861765230538E-2</v>
+        <v>4.3231832017643149E-2</v>
       </c>
       <c r="F9" s="1">
         <f>'spatial_no_lag _results'!F9</f>
-        <v>1.586085231583548E-3</v>
+        <v>1.3824895949949582E-3</v>
       </c>
       <c r="G9" s="1">
         <f>'spatial_no_lag _results'!G9</f>
-        <v>6.4716650524052927E-2</v>
+        <v>6.3796426504846307E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1228,7 +1251,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="6" t="str">
         <f>'random_lag5 _results'!A8</f>
         <v>random_lag5</v>
       </c>
@@ -1238,50 +1261,50 @@
       </c>
       <c r="C11" s="1">
         <f>'random_lag5 _results'!C8</f>
-        <v>0.23669938938871624</v>
+        <v>0.23869970519208045</v>
       </c>
       <c r="D11" s="1">
         <f>'random_lag5 _results'!D8</f>
-        <v>9.8285987928730945E-2</v>
+        <v>9.9348214465443979E-2</v>
       </c>
       <c r="E11" s="1">
         <f>'random_lag5 _results'!E8</f>
-        <v>0.30260335795549309</v>
+        <v>0.29321195721836563</v>
       </c>
       <c r="F11" s="1">
         <f>'random_lag5 _results'!F8</f>
-        <v>0.97473664424060902</v>
+        <v>0.97422257174366034</v>
       </c>
       <c r="G11" s="1">
         <f>'random_lag5 _results'!G8</f>
-        <v>0.63311982506938314</v>
+        <v>0.67063718156921015</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="str">
         <f>'random_lag5 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C12" s="1">
         <f>'random_lag5 _results'!C9</f>
-        <v>1.0603692015117693E-2</v>
+        <v>1.1133450047206429E-2</v>
       </c>
       <c r="D12" s="1">
         <f>'random_lag5 _results'!D9</f>
-        <v>4.2710511058602499E-3</v>
+        <v>4.7127958797403002E-3</v>
       </c>
       <c r="E12" s="1">
         <f>'random_lag5 _results'!E9</f>
-        <v>2.7853691241397593E-2</v>
+        <v>2.9257149101084044E-2</v>
       </c>
       <c r="F12" s="1">
         <f>'random_lag5 _results'!F9</f>
-        <v>5.300488661593029E-4</v>
+        <v>7.5237471343475744E-4</v>
       </c>
       <c r="G12" s="1">
         <f>'random_lag5 _results'!G9</f>
-        <v>6.515154100977992E-2</v>
+        <v>6.7787713038177738E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1293,7 +1316,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="6" t="str">
         <f>'spatial_lag5 _results'!A8</f>
         <v>spatial_lag5</v>
       </c>
@@ -1303,50 +1326,50 @@
       </c>
       <c r="C14" s="1">
         <f>'spatial_lag5 _results'!C8</f>
-        <v>0.32992193574357931</v>
+        <v>0.33652118992740387</v>
       </c>
       <c r="D14" s="1">
         <f>'spatial_lag5 _results'!D8</f>
-        <v>9.8200789973118915E-2</v>
+        <v>9.916266069943569E-2</v>
       </c>
       <c r="E14" s="1">
         <f>'spatial_lag5 _results'!E8</f>
-        <v>0.30231928164822108</v>
+        <v>0.29277644568911143</v>
       </c>
       <c r="F14" s="1">
         <f>'spatial_lag5 _results'!F8</f>
-        <v>0.9747553077391542</v>
+        <v>0.97426126263923718</v>
       </c>
       <c r="G14" s="1">
         <f>'spatial_lag5 _results'!G8</f>
-        <v>0.63327515896503817</v>
+        <v>0.67103991996237633</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="str">
         <f>'spatial_lag5 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C15" s="1">
         <f>'spatial_lag5 _results'!C9</f>
-        <v>1.5252935174716943E-2</v>
+        <v>1.5301060277957867E-2</v>
       </c>
       <c r="D15" s="1">
         <f>'spatial_lag5 _results'!D9</f>
-        <v>4.248219114945149E-3</v>
+        <v>4.2645727642196506E-3</v>
       </c>
       <c r="E15" s="1">
         <f>'spatial_lag5 _results'!E9</f>
-        <v>2.7260987380089655E-2</v>
+        <v>2.8775114462813431E-2</v>
       </c>
       <c r="F15" s="1">
         <f>'spatial_lag5 _results'!F9</f>
-        <v>4.5255924227038914E-4</v>
+        <v>5.5644367773483386E-4</v>
       </c>
       <c r="G15" s="1">
         <f>'spatial_lag5 _results'!G9</f>
-        <v>6.511473389080269E-2</v>
+        <v>6.7741310158834375E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1358,7 +1381,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="6" t="str">
         <f>'random_lag10 _results'!A8</f>
         <v>random_lag10</v>
       </c>
@@ -1368,50 +1391,50 @@
       </c>
       <c r="C17" s="1">
         <f>'random_lag10 _results'!C8</f>
-        <v>0.22601958428116881</v>
+        <v>0.22734796942363683</v>
       </c>
       <c r="D17" s="1">
         <f>'random_lag10 _results'!D8</f>
-        <v>9.4707931492968231E-2</v>
+        <v>9.4682630742943183E-2</v>
       </c>
       <c r="E17" s="1">
         <f>'random_lag10 _results'!E8</f>
-        <v>0.30506107887394807</v>
+        <v>0.30909431372789176</v>
       </c>
       <c r="F17" s="1">
         <f>'random_lag10 _results'!F8</f>
-        <v>0.97648181205554074</v>
+        <v>0.97641210130670475</v>
       </c>
       <c r="G17" s="1">
         <f>'random_lag10 _results'!G8</f>
-        <v>0.62717439962877974</v>
+        <v>0.63834754466176558</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="str">
         <f>'random_lag10 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C18" s="1">
         <f>'random_lag10 _results'!C9</f>
-        <v>9.7334429940532357E-3</v>
+        <v>1.0614258311461575E-2</v>
       </c>
       <c r="D18" s="1">
         <f>'random_lag10 _results'!D9</f>
-        <v>4.857817070542416E-3</v>
+        <v>4.5813037884192423E-3</v>
       </c>
       <c r="E18" s="1">
         <f>'random_lag10 _results'!E9</f>
-        <v>2.1320887219147412E-2</v>
+        <v>2.8349443787261973E-2</v>
       </c>
       <c r="F18" s="1">
         <f>'random_lag10 _results'!F9</f>
-        <v>4.9127253708374375E-4</v>
+        <v>7.839101357276036E-4</v>
       </c>
       <c r="G18" s="1">
         <f>'random_lag10 _results'!G9</f>
-        <v>6.5585072278290732E-2</v>
+        <v>6.7833826216246187E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1423,7 +1446,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="6" t="str">
         <f>'spatial_lag10 _results'!A8</f>
         <v>spatial_lag10</v>
       </c>
@@ -1433,50 +1456,50 @@
       </c>
       <c r="C20" s="1">
         <f>'spatial_lag10 _results'!C8</f>
-        <v>0.33183942171152658</v>
+        <v>0.33528435377296872</v>
       </c>
       <c r="D20" s="1">
         <f>'spatial_lag10 _results'!D8</f>
-        <v>9.3479589618350192E-2</v>
+        <v>9.3864438267173222E-2</v>
       </c>
       <c r="E20" s="1">
         <f>'spatial_lag10 _results'!E8</f>
-        <v>0.30827166773923709</v>
+        <v>0.30984686377854453</v>
       </c>
       <c r="F20" s="1">
         <f>'spatial_lag10 _results'!F8</f>
-        <v>0.9769158289225206</v>
+        <v>0.97668116433547869</v>
       </c>
       <c r="G20" s="1">
         <f>'spatial_lag10 _results'!G8</f>
-        <v>0.6192233145014191</v>
+        <v>0.63531060163266573</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="str">
         <f>'spatial_lag10 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C21" s="1">
         <f>'spatial_lag10 _results'!C9</f>
-        <v>1.413654038672813E-2</v>
+        <v>1.3995392446789082E-2</v>
       </c>
       <c r="D21" s="1">
         <f>'spatial_lag10 _results'!D9</f>
-        <v>3.9775888137323651E-3</v>
+        <v>4.1837552399957975E-3</v>
       </c>
       <c r="E21" s="1">
         <f>'spatial_lag10 _results'!E9</f>
-        <v>1.9122395679950312E-2</v>
+        <v>2.6421222171188065E-2</v>
       </c>
       <c r="F21" s="1">
         <f>'spatial_lag10 _results'!F9</f>
-        <v>4.8208248137881446E-4</v>
+        <v>6.8514260944001735E-4</v>
       </c>
       <c r="G21" s="1">
         <f>'spatial_lag10 _results'!G9</f>
-        <v>5.9177594094378561E-2</v>
+        <v>6.4729562720818506E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1488,7 +1511,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="6" t="str">
         <f>'random_lag20 _results'!A8</f>
         <v>random_lag20</v>
       </c>
@@ -1498,50 +1521,50 @@
       </c>
       <c r="C23" s="1">
         <f>'random_lag20 _results'!C8</f>
-        <v>0.22043314938523489</v>
+        <v>0.22110105618072257</v>
       </c>
       <c r="D23" s="1">
         <f>'random_lag20 _results'!D8</f>
-        <v>9.4563543793292598E-2</v>
+        <v>9.4149105090991447E-2</v>
       </c>
       <c r="E23" s="1">
         <f>'random_lag20 _results'!E8</f>
-        <v>0.31724807295393215</v>
+        <v>0.31935054421119136</v>
       </c>
       <c r="F23" s="1">
         <f>'random_lag20 _results'!F8</f>
-        <v>0.97667124752513312</v>
+        <v>0.97674970268178785</v>
       </c>
       <c r="G23" s="1">
         <f>'random_lag20 _results'!G8</f>
-        <v>0.610101163684442</v>
+        <v>0.60776412007270253</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="str">
         <f>'random_lag20 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C24" s="1">
         <f>'random_lag20 _results'!C9</f>
-        <v>7.3903482506545073E-3</v>
+        <v>7.5908025674341038E-3</v>
       </c>
       <c r="D24" s="1">
         <f>'random_lag20 _results'!D9</f>
-        <v>3.0212175380100429E-3</v>
+        <v>2.4702494050567948E-3</v>
       </c>
       <c r="E24" s="1">
         <f>'random_lag20 _results'!E9</f>
-        <v>2.0610600965653373E-2</v>
+        <v>1.9576521638887776E-2</v>
       </c>
       <c r="F24" s="1">
         <f>'random_lag20 _results'!F9</f>
-        <v>7.113625363105757E-4</v>
+        <v>5.8940607994074944E-4</v>
       </c>
       <c r="G24" s="1">
         <f>'random_lag20 _results'!G9</f>
-        <v>4.8948510503988241E-2</v>
+        <v>4.5621008243828573E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1553,7 +1576,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="6" t="str">
         <f>'spatial_lag20 _results'!A8</f>
         <v>spatial_lag20</v>
       </c>
@@ -1563,50 +1586,50 @@
       </c>
       <c r="C26" s="1">
         <f>'spatial_lag20 _results'!C8</f>
-        <v>0.34076545135254854</v>
+        <v>0.33779934949870122</v>
       </c>
       <c r="D26" s="1">
         <f>'spatial_lag20 _results'!D8</f>
-        <v>9.2001280752125547E-2</v>
+        <v>9.2003470418978994E-2</v>
       </c>
       <c r="E26" s="1">
         <f>'spatial_lag20 _results'!E8</f>
-        <v>0.31503035496934595</v>
+        <v>0.31933395599511255</v>
       </c>
       <c r="F26" s="1">
         <f>'spatial_lag20 _results'!F8</f>
-        <v>0.97753518008597662</v>
+        <v>0.97747684082731934</v>
       </c>
       <c r="G26" s="1">
         <f>'spatial_lag20 _results'!G8</f>
-        <v>0.60502554562749677</v>
+        <v>0.60053829778554046</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="str">
         <f>'spatial_lag20 _results'!B9</f>
         <v>SE</v>
       </c>
       <c r="C27" s="1">
         <f>'spatial_lag20 _results'!C9</f>
-        <v>1.4328263610829471E-2</v>
+        <v>1.2035344429165803E-2</v>
       </c>
       <c r="D27" s="1">
         <f>'spatial_lag20 _results'!D9</f>
-        <v>3.1173346775601029E-3</v>
+        <v>2.9051431708418621E-3</v>
       </c>
       <c r="E27" s="1">
         <f>'spatial_lag20 _results'!E9</f>
-        <v>1.763949327038998E-2</v>
+        <v>1.3632034658524203E-2</v>
       </c>
       <c r="F27" s="1">
         <f>'spatial_lag20 _results'!F9</f>
-        <v>7.1470171280137282E-4</v>
+        <v>5.7727590170158507E-4</v>
       </c>
       <c r="G27" s="1">
         <f>'spatial_lag20 _results'!G9</f>
-        <v>3.6388350035465637E-2</v>
+        <v>3.1063477071805623E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1652,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,31 +1738,31 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>0.1346664595669132</v>
+        <v>0.47826946806090032</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.5012639719574634E-2</v>
+        <v>0.12434778955310991</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.12447851827323606</v>
+        <v>0.44208687828440463</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.38397896910050849</v>
+        <v>1.3637056910003871</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.25102867563486053</v>
+        <v>0.89153120643423311</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,31 +1791,31 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.7642639363844228</v>
+        <v>0.17478230858413091</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.20961643506831196</v>
+        <v>4.7937947473667919E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.69907054247984268</v>
+        <v>0.15987299342661754</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.160187389559975</v>
+        <v>0.4940211371320114</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.4127759282232129</v>
+        <v>0.3230928825650321</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,31 +1844,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.4854637842387563</v>
+        <v>0.17371120297582732</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12369368605043592</v>
+        <v>4.4260724902535693E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.4109071640828863</v>
+        <v>0.14703296126641405</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3629039012886079</v>
+        <v>0.487681437667975</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.78546433982667763</v>
+        <v>0.28105897864216706</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,31 +1897,31 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.170360697417169</v>
+        <v>0.74492972582845551</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>4.777933842682263E-2</v>
+        <v>0.20892289133685463</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.16163506014670384</v>
+        <v>0.70677546444004746</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49371395333786788</v>
+        <v>2.1588441786960875</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29390324791843514</v>
+        <v>1.285139525790107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,31 +1950,31 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14907237915548149</v>
+        <v>0.11730404204419201</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.3904304495482598E-2</v>
+        <v>3.4547998828726841E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.17906048986406078</v>
+        <v>0.14090148255807894</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48689168714292363</v>
+        <v>0.38313175964013563</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28195553653429761</v>
+        <v>0.22186889549616337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,23 +2001,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.34076545135254854</v>
+        <v>0.33779934949870122</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.2001280752125547E-2</v>
+        <v>9.2003470418978994E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.31503035496934595</v>
+        <v>0.31933395599511255</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.97753518008597662</v>
+        <v>0.97747684082731934</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.60502554562749677</v>
+        <v>0.60053829778554046</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -2008,23 +2031,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.34076545135254854</v>
+        <v>0.33779934949870122</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.2001280752125547E-2</v>
+        <v>9.2003470418978994E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.31503035496934595</v>
+        <v>0.31933395599511255</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.97753518008597662</v>
+        <v>0.97747684082731934</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.60502554562749677</v>
+        <v>0.60053829778554046</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,23 +2056,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.4328263610829471E-2</v>
+        <v>1.2035344429165803E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>3.1173346775601029E-3</v>
+        <v>2.9051431708418621E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>1.763949327038998E-2</v>
+        <v>1.3632034658524203E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>7.1470171280137282E-4</v>
+        <v>5.7727590170158507E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>3.6388350035465637E-2</v>
+        <v>3.1063477071805623E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -2086,111 +2109,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>3.7082749311846174E-7</v>
+        <v>7.3663469698814391E-6</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>6.3296765998717742E-7</v>
+        <v>2.2514609628138106E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>3.0283967844882029E-7</v>
+        <v>1.5271812988026434E-6</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>6.9052401729496059E-9</v>
+        <v>3.5123413430364979E-8</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>9.2064603717390714E-5</v>
+        <v>4.1828976602710456E-4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>1.2306713895289152E-5</v>
+        <v>6.8662903268456943E-6</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>3.7378087282813817E-6</v>
+        <v>8.5352671138051259E-7</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>9.8746715635980747E-7</v>
+        <v>7.9675407007477753E-7</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>1.3634836719682767E-7</v>
+        <v>3.8074304486462256E-8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>5.3039046329070023E-4</v>
+        <v>1.5474567275691525E-4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>1.4992686722875777E-5</v>
+        <v>1.0583635714057215E-5</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.0521298145844192E-6</v>
+        <v>1.0935754632897111E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>1.1600243806229758E-4</v>
+        <v>6.0876131255525137E-5</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>2.1617890452505323E-8</v>
+        <v>4.8331234243115907E-9</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>4.8772332841700032E-4</v>
+        <v>1.3907425207914233E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.22039838759491E-6</v>
+        <v>1.1474639588543183E-7</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>6.802196956200054E-7</v>
+        <v>2.9693531565197506E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>2.5091050601224627E-6</v>
+        <v>2.0437299095437292E-7</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>2.793896011139211E-10</v>
+        <v>1.459812502471878E-11</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>5.4087967955612221E-5</v>
+        <v>1.5367396618220846E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1.7640851160254168E-4</v>
+        <v>1.1991849612198258E-4</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>1.6146495934457672E-6</v>
+        <v>1.2719405490853236E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>1.9134987287890474E-4</v>
+        <v>1.2242792931584816E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>3.4564765085781951E-7</v>
+        <v>2.5520202721921451E-7</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>1.5984565492286834E-4</v>
+        <v>9.9155950745223064E-5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,23 +2222,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.4328263610829471E-2</v>
+        <v>1.2035344429165803E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>3.1173346775601029E-3</v>
+        <v>2.9051431708418621E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>1.763949327038998E-2</v>
+        <v>1.3632034658524203E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>7.1470171280137282E-4</v>
+        <v>5.7727590170158507E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>3.6388350035465637E-2</v>
+        <v>3.1063477071805623E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -2248,27 +2271,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.34076545135254854</v>
+        <v>0.33779934949870122</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.2001280752125547E-2</v>
+        <v>9.2003470418978994E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.31503035496934595</v>
+        <v>0.31933395599511255</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.4328263610829471E-2</v>
+        <v>1.2035344429165803E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>3.1173346775601029E-3</v>
+        <v>2.9051431708418621E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>1.763949327038998E-2</v>
+        <v>1.3632034658524203E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2328,27 +2351,27 @@
       </c>
       <c r="B2">
         <f>'random_no_lag _results'!C21</f>
-        <v>0.32891793898409016</v>
+        <v>0.32787559920915643</v>
       </c>
       <c r="C2">
         <f>'random_no_lag _results'!D21</f>
-        <v>0.14367934561750637</v>
+        <v>0.14290148500080466</v>
       </c>
       <c r="D2">
         <f>'random_no_lag _results'!E21</f>
-        <v>0.37121520323306806</v>
+        <v>0.35485517875394901</v>
       </c>
       <c r="E2">
         <f>'random_no_lag _results'!F21</f>
-        <v>1.2135006216419355E-2</v>
+        <v>1.0304686980669994E-2</v>
       </c>
       <c r="F2">
         <f>'random_no_lag _results'!G21</f>
-        <v>3.5486253209919636E-3</v>
+        <v>2.6537322771684421E-3</v>
       </c>
       <c r="G2">
         <f>'random_no_lag _results'!H21</f>
-        <v>4.7433534786151567E-2</v>
+        <v>4.584507987506381E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2358,27 +2381,27 @@
       </c>
       <c r="B3">
         <f>'spatial_no_lag _results'!C21</f>
-        <v>0.39640688197719198</v>
+        <v>0.40056232012948112</v>
       </c>
       <c r="C3">
         <f>'spatial_no_lag _results'!D21</f>
-        <v>0.14071625271431443</v>
+        <v>0.13995022311309641</v>
       </c>
       <c r="D3">
         <f>'spatial_no_lag _results'!E21</f>
-        <v>0.37089069595912838</v>
+        <v>0.35527954282432772</v>
       </c>
       <c r="E3">
         <f>'spatial_no_lag _results'!F21</f>
-        <v>1.3676131907893062E-2</v>
+        <v>1.4216544638045735E-2</v>
       </c>
       <c r="F3">
         <f>'spatial_no_lag _results'!G21</f>
-        <v>4.3621494567028926E-3</v>
+        <v>3.3489007839033391E-3</v>
       </c>
       <c r="G3">
         <f>'spatial_no_lag _results'!H21</f>
-        <v>4.4344861765230538E-2</v>
+        <v>4.3231832017643149E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2388,27 +2411,27 @@
       </c>
       <c r="B4">
         <f>'random_lag5 _results'!C21</f>
-        <v>0.23669938938871624</v>
+        <v>0.23869970519208045</v>
       </c>
       <c r="C4">
         <f>'random_lag5 _results'!D21</f>
-        <v>9.8285987928730945E-2</v>
+        <v>9.9348214465443979E-2</v>
       </c>
       <c r="D4">
         <f>'random_lag5 _results'!E21</f>
-        <v>0.30260335795549309</v>
+        <v>0.29321195721836563</v>
       </c>
       <c r="E4">
         <f>'random_lag5 _results'!F21</f>
-        <v>1.0603692015117693E-2</v>
+        <v>1.1133450047206429E-2</v>
       </c>
       <c r="F4">
         <f>'random_lag5 _results'!G21</f>
-        <v>4.2710511058602499E-3</v>
+        <v>4.7127958797403002E-3</v>
       </c>
       <c r="G4">
         <f>'random_lag5 _results'!H21</f>
-        <v>2.7853691241397593E-2</v>
+        <v>2.9257149101084044E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2418,27 +2441,27 @@
       </c>
       <c r="B5">
         <f>'spatial_lag5 _results'!C21</f>
-        <v>0.32992193574357931</v>
+        <v>0.33652118992740387</v>
       </c>
       <c r="C5">
         <f>'spatial_lag5 _results'!D21</f>
-        <v>9.8200789973118915E-2</v>
+        <v>9.916266069943569E-2</v>
       </c>
       <c r="D5">
         <f>'spatial_lag5 _results'!E21</f>
-        <v>0.30231928164822108</v>
+        <v>0.29277644568911143</v>
       </c>
       <c r="E5">
         <f>'spatial_lag5 _results'!F21</f>
-        <v>1.5252935174716943E-2</v>
+        <v>1.5301060277957867E-2</v>
       </c>
       <c r="F5">
         <f>'spatial_lag5 _results'!G21</f>
-        <v>4.248219114945149E-3</v>
+        <v>4.2645727642196506E-3</v>
       </c>
       <c r="G5">
         <f>'spatial_lag5 _results'!H21</f>
-        <v>2.7260987380089655E-2</v>
+        <v>2.8775114462813431E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2448,27 +2471,27 @@
       </c>
       <c r="B6">
         <f>'random_lag10 _results'!C21</f>
-        <v>0.22601958428116881</v>
+        <v>0.22734796942363683</v>
       </c>
       <c r="C6">
         <f>'random_lag10 _results'!D21</f>
-        <v>9.4707931492968231E-2</v>
+        <v>9.4682630742943183E-2</v>
       </c>
       <c r="D6">
         <f>'random_lag10 _results'!E21</f>
-        <v>0.30506107887394807</v>
+        <v>0.30909431372789176</v>
       </c>
       <c r="E6">
         <f>'random_lag10 _results'!F21</f>
-        <v>9.7334429940532357E-3</v>
+        <v>1.0614258311461575E-2</v>
       </c>
       <c r="F6">
         <f>'random_lag10 _results'!G21</f>
-        <v>4.857817070542416E-3</v>
+        <v>4.5813037884192423E-3</v>
       </c>
       <c r="G6">
         <f>'random_lag10 _results'!H21</f>
-        <v>2.1320887219147412E-2</v>
+        <v>2.8349443787261973E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2478,27 +2501,27 @@
       </c>
       <c r="B7">
         <f>'spatial_lag10 _results'!C21</f>
-        <v>0.33183942171152658</v>
+        <v>0.33528435377296872</v>
       </c>
       <c r="C7">
         <f>'spatial_lag10 _results'!D21</f>
-        <v>9.3479589618350192E-2</v>
+        <v>9.3864438267173222E-2</v>
       </c>
       <c r="D7">
         <f>'spatial_lag10 _results'!E21</f>
-        <v>0.30827166773923709</v>
+        <v>0.30984686377854453</v>
       </c>
       <c r="E7">
         <f>'spatial_lag10 _results'!F21</f>
-        <v>1.413654038672813E-2</v>
+        <v>1.3995392446789082E-2</v>
       </c>
       <c r="F7">
         <f>'spatial_lag10 _results'!G21</f>
-        <v>3.9775888137323651E-3</v>
+        <v>4.1837552399957975E-3</v>
       </c>
       <c r="G7">
         <f>'spatial_lag10 _results'!H21</f>
-        <v>1.9122395679950312E-2</v>
+        <v>2.6421222171188065E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2508,27 +2531,27 @@
       </c>
       <c r="B8">
         <f>'random_lag20 _results'!C21</f>
-        <v>0.22043314938523489</v>
+        <v>0.22110105618072257</v>
       </c>
       <c r="C8">
         <f>'random_lag20 _results'!D21</f>
-        <v>9.4563543793292598E-2</v>
+        <v>9.4149105090991447E-2</v>
       </c>
       <c r="D8">
         <f>'random_lag20 _results'!E21</f>
-        <v>0.31724807295393215</v>
+        <v>0.31935054421119136</v>
       </c>
       <c r="E8">
         <f>'random_lag20 _results'!F21</f>
-        <v>7.3903482506545073E-3</v>
+        <v>7.5908025674341038E-3</v>
       </c>
       <c r="F8">
         <f>'random_lag20 _results'!G21</f>
-        <v>3.0212175380100429E-3</v>
+        <v>2.4702494050567948E-3</v>
       </c>
       <c r="G8">
         <f>'random_lag20 _results'!H21</f>
-        <v>2.0610600965653373E-2</v>
+        <v>1.9576521638887776E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2538,27 +2561,27 @@
       </c>
       <c r="B9">
         <f>'spatial_lag20 _results'!C21</f>
-        <v>0.34076545135254854</v>
+        <v>0.33779934949870122</v>
       </c>
       <c r="C9">
         <f>'spatial_lag20 _results'!D21</f>
-        <v>9.2001280752125547E-2</v>
+        <v>9.2003470418978994E-2</v>
       </c>
       <c r="D9">
         <f>'spatial_lag20 _results'!E21</f>
-        <v>0.31503035496934595</v>
+        <v>0.31933395599511255</v>
       </c>
       <c r="E9">
         <f>'spatial_lag20 _results'!F21</f>
-        <v>1.4328263610829471E-2</v>
+        <v>1.2035344429165803E-2</v>
       </c>
       <c r="F9">
         <f>'spatial_lag20 _results'!G21</f>
-        <v>3.1173346775601029E-3</v>
+        <v>2.9051431708418621E-3</v>
       </c>
       <c r="G9">
         <f>'spatial_lag20 _results'!H21</f>
-        <v>1.763949327038998E-2</v>
+        <v>1.3632034658524203E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2568,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B08ACF-E3B9-44C6-92F2-3B786B960100}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2580,7 +2603,10 @@
     <col min="3" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -2658,31 +2684,32 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <f>K13</f>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>0.12594231457521399</v>
+        <v>0.44728556755675941</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>5.590839846135582E-2</v>
+        <v>0.19855931520174303</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.12875559472494974</v>
+        <v>0.45727696411569141</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.37225565743082412</v>
+        <v>1.3220702158107678</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.24497793767392892</v>
+        <v>0.87004194151067771</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,31 +2738,32 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <f>K14</f>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.75090325892142606</v>
+        <v>0.17172680649897701</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.32418112262503829</v>
+        <v>7.4138163943534591E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.76906205147556261</v>
+        <v>0.17587960703373345</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.0993135533229088</v>
+        <v>0.48009967738052706</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.2441715698334053</v>
+        <v>0.28453413656933746</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,31 +2792,32 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <f>K15</f>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.44652854838592471</v>
+        <v>0.15977919223119766</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.19825376052275331</v>
+        <v>7.0940202653616793E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.53532038938856907</v>
+        <v>0.19155115548731147</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3196054824768566</v>
+        <v>0.47218816986317946</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.64135090192866495</v>
+        <v>0.22949155080303102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,31 +2846,32 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <f>K12</f>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.1695101203856299</v>
+        <v>0.74121044007471837</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>7.2693657127782418E-2</v>
+        <v>0.31786478275011626</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.17200249148662783</v>
+        <v>0.75210873615519724</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.48019517335530182</v>
+        <v>2.0997311249305932</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29700193968451916</v>
+        <v>1.2986890571241061</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,31 +2900,32 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <f>K11</f>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.1517054526522561</v>
+        <v>0.11937598968412969</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>6.7359789350602106E-2</v>
+        <v>5.3004960455012635E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.25093548908963087</v>
+        <v>0.19745943097781155</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.47234952255677376</v>
+        <v>0.37168862915753909</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.20855330360703236</v>
+        <v>0.16410917725582502</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,23 +2952,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.32891793898409016</v>
+        <v>0.32787559920915643</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>0.14367934561750637</v>
+        <v>0.14290148500080466</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.37121520323306806</v>
+        <v>0.35485517875394901</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.94874387782853309</v>
+        <v>0.94915556342852125</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.52721113054551016</v>
+        <v>0.56937317265259546</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -2951,23 +2982,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.32891793898409016</v>
+        <v>0.32787559920915643</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>0.14367934561750637</v>
+        <v>0.14290148500080466</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.37121520323306806</v>
+        <v>0.35485517875394901</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.94874387782853309</v>
+        <v>0.94915556342852125</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.52721113054551016</v>
+        <v>0.56937317265259546</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,23 +3007,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.2135006216419355E-2</v>
+        <v>1.0304686980669994E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>3.5486253209919636E-3</v>
+        <v>2.6537322771684421E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>4.7433534786151567E-2</v>
+        <v>4.584507987506381E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>2.030868490556983E-3</v>
+        <v>1.7495272427605591E-3</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>6.434651236461246E-2</v>
+        <v>6.3114571067576619E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -3027,113 +3058,128 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1621</v>
+      </c>
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>5.2759736995750434E-6</v>
+        <v>1.4274873081930858E-5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>1.3361684586186703E-7</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4744705418452778E-4</v>
+        <v>7.731518566580916E-8</v>
+      </c>
+      <c r="O11" s="5">
+        <f>(E2-O$8)^2*$L2</f>
+        <v>2.0287296900690718E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>4.6140316877819825E-8</v>
+        <v>3.8717102981482549E-7</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>7.3353659525274891E-4</v>
+        <v>8.2792231738076493E-4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>9117</v>
+      </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>5.4192825793208919E-5</v>
+        <v>1.483588178738354E-5</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>4.2546144501379609E-6</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="5"/>
-        <v>2.3364469684971341E-4</v>
+        <v>1.5218642310335113E-6</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4522937657199829E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>1.4064645216526513E-6</v>
+        <v>1.9035288476441773E-7</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>5.7646171426884493E-4</v>
+        <v>3.681035456505471E-6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>5757</v>
+      </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>2.1301749022558216E-5</v>
+        <v>5.912458643409364E-6</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>6.473508777612979E-7</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>4.4500174370567889E-5</v>
+        <v>5.5481782839932862E-8</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="5"/>
+        <v>8.3885041665888934E-5</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>1.7907311569467736E-6</v>
+        <v>8.6590577930761859E-7</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.2647115339899601E-3</v>
+        <v>1.1966759911671452E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>2085</v>
+      </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>4.5180513001285058E-6</v>
+        <v>2.6394095216772673E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>5.996242715627293E-9</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="5"/>
-        <v>9.5053045720356089E-5</v>
+        <v>4.6090997471266115E-7</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="5"/>
+        <v>9.0515845575207086E-5</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>3.9342192709160882E-7</v>
+        <v>1.0774220519715941E-6</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>3.7354766796817161E-4</v>
+        <v>1.5360441576654262E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>2060</v>
+      </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>6.1969776057065699E-5</v>
+        <v>4.4769265040093243E-5</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>7.5511632523085647E-6</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7292952511838856E-3</v>
+        <v>4.9267238246336922E-6</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7200451987372572E-3</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>4.876689033683442E-7</v>
+        <v>5.3999382730290869E-7</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>1.1922161420094991E-3</v>
+        <v>1.8015653212732211E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,23 +3188,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.2135006216419355E-2</v>
+        <v>1.0304686980669994E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>3.5486253209919636E-3</v>
+        <v>2.6537322771684421E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>4.7433534786151567E-2</v>
+        <v>4.584507987506381E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>2.030868490556983E-3</v>
+        <v>1.7495272427605591E-3</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>6.434651236461246E-2</v>
+        <v>6.3114571067576619E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -3191,27 +3237,315 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.32891793898409016</v>
+        <v>0.32787559920915643</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>0.14367934561750637</v>
+        <v>0.14290148500080466</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.37121520323306806</v>
+        <v>0.35485517875394901</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.2135006216419355E-2</v>
+        <v>1.0304686980669994E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>3.5486253209919636E-3</v>
+        <v>2.6537322771684421E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>4.7433534786151567E-2</v>
+        <v>4.584507987506381E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>0.50284549999999995</v>
+      </c>
+      <c r="L29">
+        <v>7.8536819999999993E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1621</v>
+      </c>
+      <c r="H35">
+        <v>7.8536819999999993E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.50284549999999995</v>
+      </c>
+      <c r="J35">
+        <v>0.19745940000000001</v>
+      </c>
+      <c r="K35">
+        <v>7.3243939999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>9117</v>
+      </c>
+      <c r="H36">
+        <v>0.44171512000000002</v>
+      </c>
+      <c r="I36">
+        <v>0.34054020000000002</v>
+      </c>
+      <c r="J36">
+        <v>0.75210869999999996</v>
+      </c>
+      <c r="K36">
+        <v>7.4821536999999994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>5757</v>
+      </c>
+      <c r="H37">
+        <v>0.27892442000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.32788590000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.45727699999999999</v>
+      </c>
+      <c r="K37">
+        <v>4.6697639999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>2085</v>
+      </c>
+      <c r="H38">
+        <v>0.10101744</v>
+      </c>
+      <c r="I38">
+        <v>0.34821629999999998</v>
+      </c>
+      <c r="J38">
+        <v>0.1758796</v>
+      </c>
+      <c r="K38">
+        <v>3.0002119999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2060</v>
+      </c>
+      <c r="H39">
+        <v>9.9806199999999998E-2</v>
+      </c>
+      <c r="I39">
+        <v>0.38384620000000003</v>
+      </c>
+      <c r="J39">
+        <v>0.1915512</v>
+      </c>
+      <c r="K39">
+        <v>3.690572E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f>AVERAGE(J35:J39)</f>
+        <v>0.35485517999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f>G35</f>
+        <v>1621</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:I41" si="10">H35</f>
+        <v>7.8536819999999993E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>0.50284549999999995</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE(J35:J39)</f>
+        <v>0.35485517999999999</v>
+      </c>
+      <c r="K41">
+        <f>(I41-J41)^2</f>
+        <v>2.1901134813702386E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <f>K41*H41</f>
+        <v>1.7200454826594776E-3</v>
+      </c>
+      <c r="M41">
+        <f>L41*5</f>
+        <v>8.6002274132973879E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" ref="G42:I42" si="11">G36</f>
+        <v>9117</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>0.44171512000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>0.34054020000000002</v>
+      </c>
+      <c r="J42">
+        <f>J41</f>
+        <v>0.35485517999999999</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K45" si="12">(I42-J42)^2</f>
+        <v>2.0491865240039933E-4</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" ref="L42:L45" si="13">K42*H42</f>
+        <v>9.0515667135280677E-5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:M45" si="14">L42*5</f>
+        <v>4.5257833567640337E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" ref="G43:I43" si="15">G37</f>
+        <v>5757</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="15"/>
+        <v>0.27892442000000001</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="15"/>
+        <v>0.32788590000000001</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J45" si="16">J42</f>
+        <v>0.35485517999999999</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>7.2734206371839912E-4</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="13"/>
+        <v>2.0287346326425753E-4</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="14"/>
+        <v>1.0143673163212877E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" ref="G44:I44" si="17">G38</f>
+        <v>2085</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="17"/>
+        <v>0.10101744</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="17"/>
+        <v>0.34821629999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="16"/>
+        <v>0.35485517999999999</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>4.407472765440018E-5</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="13"/>
+        <v>4.4523161563447105E-6</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="14"/>
+        <v>2.2261580781723552E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" ref="G45:I45" si="18">G39</f>
+        <v>2060</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="18"/>
+        <v>9.9806199999999998E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="18"/>
+        <v>0.38384620000000003</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="16"/>
+        <v>0.35485517999999999</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="12"/>
+        <v>8.4047924064040202E-4</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="13"/>
+        <v>8.3885039187204087E-5</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="14"/>
+        <v>4.1942519593602041E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" ref="G46:I46" si="19">G40</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <f>SQRT(SUM(L41:L45))</f>
+        <v>4.5845086633166748E-2</v>
+      </c>
+      <c r="M46" s="5">
+        <f>SQRT(AVERAGE(M41:M45))</f>
+        <v>4.5845086633166748E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3222,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065B8CA-26C2-4918-B668-7FC2D9A5748A}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3233,7 +3567,8 @@
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3310,31 +3645,31 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>0.16277627271956768</v>
+        <v>0.57810179028164788</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>5.4309092136920423E-2</v>
+        <v>0.19287936053809432</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.12983806997000946</v>
+        <v>0.46112138730249497</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.37289552986132113</v>
+        <v>1.3243427300503552</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.24363489949532577</v>
+        <v>0.86527212609166582</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,31 +3698,31 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.87993504483626261</v>
+        <v>0.2012355564860818</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.31972337405577855</v>
+        <v>7.3118705155895372E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.77583954154613455</v>
+        <v>0.17742957597057044</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.1014947494703691</v>
+        <v>0.48059850308716895</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.2311904958873949</v>
+        <v>0.28156544739774247</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,31 +3751,31 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.55905908041101737</v>
+        <v>0.20004545868450507</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.19241897983065342</v>
+        <v>6.8852370757537959E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.52886593176862962</v>
+        <v>0.18924158753576115</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3223355936804035</v>
+        <v>0.47316507260406993</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.63213717969384464</v>
+        <v>0.22619464828371022</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,31 +3804,31 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.201965518656052</v>
+        <v>0.88312692258380143</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>7.1670590472785817E-2</v>
+        <v>0.31339125819682895</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.17239842987750495</v>
+        <v>0.75384004086005407</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.48071511396760275</v>
+        <v>2.1020046494209281</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29640541891944699</v>
+        <v>1.2960806735197115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,31 +3857,31 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.1782984932630603</v>
+        <v>0.14030187261136928</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>6.545922707543389E-2</v>
+        <v>5.1509420917125417E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.24751150663336327</v>
+        <v>0.19476512245275818</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.47326794800791672</v>
+        <v>0.37241133190331704</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.20740605413297253</v>
+        <v>0.16320641444152839</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,23 +3914,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.39640688197719198</v>
+        <v>0.40056232012948112</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>0.14071625271431443</v>
+        <v>0.13995022311309641</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.37089069595912838</v>
+        <v>0.35527954282432772</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.95014178699752261</v>
+        <v>0.95050445741316769</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.52215480962579697</v>
+        <v>0.56646386194687171</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -3609,23 +3944,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.39640688197719198</v>
+        <v>0.40056232012948112</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>0.14071625271431443</v>
+        <v>0.13995022311309641</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.37089069595912838</v>
+        <v>0.35527954282432772</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.95014178699752261</v>
+        <v>0.95050445741316769</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.52215480962579697</v>
+        <v>0.56646386194687171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,23 +3969,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.3676131907893062E-2</v>
+        <v>1.4216544638045735E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>4.3621494567028926E-3</v>
+        <v>3.3489007839033391E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>4.4344861765230538E-2</v>
+        <v>4.3231832017643149E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>1.586085231583548E-3</v>
+        <v>1.3824895949949582E-3</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>6.4716650524052927E-2</v>
+        <v>6.3796426504846307E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -3687,111 +4022,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>2.5772959332886862E-5</v>
+        <v>5.4356145744738597E-5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>4.5766967725848967E-7</v>
+        <v>7.5751568158620194E-7</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>1.2722291912481664E-4</v>
+        <v>1.6930211402441152E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>2.2471657238380553E-8</v>
+        <v>2.2471573262164041E-7</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>7.5858426239751786E-4</v>
+        <v>8.124693917242815E-4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>1.7855768432940097E-6</v>
+        <v>4.6472875852561926E-7</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>7.2390180751303906E-6</v>
+        <v>2.341322817824172E-6</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>1.6978738356655297E-4</v>
+        <v>1.6118469117105755E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>8.3402263183076104E-7</v>
+        <v>1.0333945572797877E-7</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>5.505497457768423E-4</v>
+        <v>8.1911232192334481E-6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>5.5505196691754185E-6</v>
+        <v>9.313279558078993E-9</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>2.1003602743465114E-6</v>
+        <v>3.9052718333407894E-7</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>1.934216882520509E-5</v>
+        <v>5.7194365539039333E-5</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>1.0869964988869969E-6</v>
+        <v>5.4499487277826997E-7</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.3236165236785277E-3</v>
+        <v>1.2788533906811378E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.2063958672716667E-6</v>
+        <v>2.1622586096306324E-7</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>1.4094389292860712E-7</v>
+        <v>1.6748596488796979E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>8.8307876497001179E-5</v>
+        <v>8.6026132749127913E-5</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>2.6021405723889233E-7</v>
+        <v>6.8170370140448465E-7</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>4.2267560016539938E-4</v>
+        <v>1.8339583650230109E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1.527211322494628E-4</v>
+        <v>1.4706372780176158E-4</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>9.0903559629493405E-6</v>
+        <v>6.0509111288042473E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>1.5618064169638291E-3</v>
+        <v>1.5548568403774261E-3</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>3.119615166524061E-7</v>
+        <v>3.5652371773694995E-7</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>1.1328187230341118E-3</v>
+        <v>1.7870742926613024E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,23 +4135,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.3676131907893062E-2</v>
+        <v>1.4216544638045735E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>4.3621494567028926E-3</v>
+        <v>3.3489007839033391E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>4.4344861765230538E-2</v>
+        <v>4.3231832017643149E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>1.586085231583548E-3</v>
+        <v>1.3824895949949582E-3</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>6.4716650524052927E-2</v>
+        <v>6.3796426504846307E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -3849,27 +4184,179 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.39640688197719198</v>
+        <v>0.40056232012948112</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>0.14071625271431443</v>
+        <v>0.13995022311309641</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.37089069595912838</v>
+        <v>0.35527954282432772</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.3676131907893062E-2</v>
+        <v>1.4216544638045735E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>4.3621494567028926E-3</v>
+        <v>3.3489007839033391E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>4.4344861765230538E-2</v>
+        <v>4.3231832017643149E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0.41452220000000001</v>
+      </c>
+      <c r="F28">
+        <v>2671.6</v>
+      </c>
+      <c r="G28">
+        <v>0.1875281</v>
+      </c>
+      <c r="H28">
+        <v>0.38867269999999998</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(H28:H32)</f>
+        <v>0.39192462</v>
+      </c>
+      <c r="J28">
+        <f>(E28-I28)^2*G28</f>
+        <v>9.5761340880549204E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0.39841739999999998</v>
+      </c>
+      <c r="F29">
+        <v>2688</v>
+      </c>
+      <c r="G29">
+        <v>0.18867919999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.37586550000000002</v>
+      </c>
+      <c r="I29">
+        <f>I28</f>
+        <v>0.39192462</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J32" si="10">(E29-I29)^2*G29</f>
+        <v>7.9539966058327493E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0.4008678</v>
+      </c>
+      <c r="F30">
+        <v>3303.6</v>
+      </c>
+      <c r="G30">
+        <v>0.23189019999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.46478649999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I32" si="11">I29</f>
+        <v>0.39192462</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="10"/>
+        <v>1.8546686839434118E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.39986270000000002</v>
+      </c>
+      <c r="F31">
+        <v>2020.2</v>
+      </c>
+      <c r="G31">
+        <v>0.14180419999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.28351110000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="11"/>
+        <v>0.39192462</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="10"/>
+        <v>8.9355242325307153E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.35728939999999998</v>
+      </c>
+      <c r="F32">
+        <v>3563</v>
+      </c>
+      <c r="G32">
+        <v>0.2500983</v>
+      </c>
+      <c r="H32">
+        <v>0.4467873</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>0.39192462</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="10"/>
+        <v>3.0001753664115564E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>AVERAGE(I28:I32)</f>
+        <v>0.39192462</v>
+      </c>
+      <c r="J33">
+        <f>SQRT(SUM(J28:J32))</f>
+        <v>2.0765718990670718E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +4370,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3968,31 +4455,31 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>9.0161048270719274E-2</v>
+        <v>0.32020799191519478</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.746705993629932E-2</v>
+        <v>0.13306469096438939</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.10368712830070992</v>
+        <v>0.36824601951091113</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.3828648620309178</v>
+        <v>1.359748927027757</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.29676954050524107</v>
+        <v>1.0539804100485335</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,31 +4508,31 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.54167498188260732</v>
+        <v>0.12387762830155054</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.22434587591942171</v>
+        <v>5.130647705297732E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.66105863563415679</v>
+        <v>0.1511799117360115</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.1537164933019399</v>
+        <v>0.49254128425299387</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.4815131195027784</v>
+        <v>0.33881264167635106</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,31 +4561,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.31715796235459753</v>
+        <v>0.11348712913852196</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13181401217378594</v>
+        <v>4.7166382678130801E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.40907632918444503</v>
+        <v>0.14637784229980139</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.359196137387237</v>
+        <v>0.48635470610000142</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.78248311706964735</v>
+        <v>0.27999222184531414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,31 +4614,31 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.1258856991169473</v>
+        <v>0.5504555965703638</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>5.2497255041416391E-2</v>
+        <v>0.2295527454257042</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14873965962065377</v>
+        <v>0.65038823825491632</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49165485380218943</v>
+        <v>2.1498404326688543</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.33590047072835583</v>
+        <v>1.4687791806380912</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,31 +4667,31 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10861725531871001</v>
+        <v>8.5470180034771331E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.5305736572731382E-2</v>
+        <v>3.5650776206018239E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.19045503703749994</v>
+        <v>0.14986777429018805</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48625087468076067</v>
+        <v>0.38262750866869577</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.26893287754089268</v>
+        <v>0.21162145363776072</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,23 +4724,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.23669938938871624</v>
+        <v>0.23869970519208045</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.8285987928730945E-2</v>
+        <v>9.9348214465443979E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.30260335795549309</v>
+        <v>0.29321195721836563</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.97473664424060902</v>
+        <v>0.97422257174366034</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.63311982506938314</v>
+        <v>0.67063718156921015</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -4267,23 +4754,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.23669938938871624</v>
+        <v>0.23869970519208045</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.8285987928730945E-2</v>
+        <v>9.9348214465443979E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.30260335795549309</v>
+        <v>0.29321195721836563</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.97473664424060902</v>
+        <v>0.97422257174366034</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.63311982506938314</v>
+        <v>0.67063718156921015</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,23 +4779,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.0603692015117693E-2</v>
+        <v>1.1133450047206429E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>4.2710511058602499E-3</v>
+        <v>4.7127958797403002E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>2.7853691241397593E-2</v>
+        <v>2.9257149101084044E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>5.300488661593029E-4</v>
+        <v>7.5237471343475744E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>6.515154100977992E-2</v>
+        <v>6.7787713038177738E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -4345,111 +4832,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>3.9561541947959967E-6</v>
+        <v>2.3086191916398408E-5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>6.4837277576212301E-7</v>
+        <v>4.3200081226285177E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>1.1675122791055978E-4</v>
+        <v>2.3724884391182062E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>5.2235295821129603E-9</v>
+        <v>1.6622111878410726E-7</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>1.1809769484029023E-3</v>
+        <v>2.0204037211377411E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>3.2369766311936637E-5</v>
+        <v>4.3473757617790058E-6</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>4.7912140513535399E-6</v>
+        <v>5.0290299190905739E-7</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>4.7779290572838504E-6</v>
+        <v>3.7619598020461059E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>7.9495701420973694E-8</v>
+        <v>8.8936798306908299E-8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>6.271545081738217E-4</v>
+        <v>2.6871913193201508E-9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>2.4043330905991004E-5</v>
+        <v>1.2709811752960875E-5</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.9644345551414729E-6</v>
+        <v>2.3305663631846483E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>2.4016464711571892E-5</v>
+        <v>1.2561088526650371E-9</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>5.3485361068701368E-9</v>
+        <v>1.4079940642422302E-8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.4478740783680352E-3</v>
+        <v>1.1981309884678305E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.5875482388796398E-5</v>
+        <v>4.9032353506418861E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>3.2258977060644374E-6</v>
+        <v>9.3012205982722876E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>6.6609071523907335E-6</v>
+        <v>7.1375273057732961E-7</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>1.7889817338325976E-7</v>
+        <v>2.9462559968607785E-7</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>1.0289161090331638E-4</v>
+        <v>1.3864955410211455E-5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>3.6193550549950691E-5</v>
+        <v>3.4777977016083707E-5</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>5.6119584605484863E-6</v>
+        <v>5.7557469281026373E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>6.2362158693930281E-4</v>
+        <v>6.1425496096976606E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>1.1985860023546114E-8</v>
+        <v>2.2042519965176858E-9</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>8.858261501009585E-4</v>
+        <v>1.3627716867392295E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,23 +4945,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.0603692015117693E-2</v>
+        <v>1.1133450047206429E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>4.2710511058602499E-3</v>
+        <v>4.7127958797403002E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>2.7853691241397593E-2</v>
+        <v>2.9257149101084044E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>5.300488661593029E-4</v>
+        <v>7.5237471343475744E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>6.515154100977992E-2</v>
+        <v>6.7787713038177738E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -4507,27 +4994,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.23669938938871624</v>
+        <v>0.23869970519208045</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.8285987928730945E-2</v>
+        <v>9.9348214465443979E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.30260335795549309</v>
+        <v>0.29321195721836563</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.0603692015117693E-2</v>
+        <v>1.1133450047206429E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>4.2710511058602499E-3</v>
+        <v>4.7127958797403002E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>2.7853691241397593E-2</v>
+        <v>2.9257149101084044E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +5028,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4626,31 +5113,31 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>0.1330101222757839</v>
+        <v>0.47238696726816032</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.7822255855191222E-2</v>
+        <v>0.13432617332408134</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.10361264174733868</v>
+        <v>0.3679814796665199</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.38274205991854149</v>
+        <v>1.3593127939241476</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.29686710302459463</v>
+        <v>1.0543269044494701</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,31 +5166,31 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.7450947028217616</v>
+        <v>0.17039842660780663</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.22434587591942171</v>
+        <v>5.130647705297732E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.66105863563415679</v>
+        <v>0.1511799117360115</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.1537164933019399</v>
+        <v>0.49254128425299387</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.4815131195027784</v>
+        <v>0.33881264167635106</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,31 +5219,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.45246825290079978</v>
+        <v>0.16190456852104351</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13181401217378594</v>
+        <v>4.7166382678130801E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.40907632918444503</v>
+        <v>0.14637784229980139</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.359196137387237</v>
+        <v>0.48635470610000142</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.78248311706964735</v>
+        <v>0.27999222184531414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,31 +5272,31 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.17482116461645009</v>
+        <v>0.76443384067538411</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>5.2058146548866861E-2</v>
+        <v>0.22763267246331859</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14850151202497242</v>
+        <v>0.64934689934372813</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49178300611086723</v>
+        <v>2.1504007993826271</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.33621638985742691</v>
+        <v>1.4701605881679431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,31 +5325,31 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14421543610310125</v>
+        <v>0.11348214656462484</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.4963659368328787E-2</v>
+        <v>3.5381597978670375E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.18934728965019254</v>
+        <v>0.14899609539949618</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48633884197718585</v>
+        <v>0.3826967295364167</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.26929606537074358</v>
+        <v>0.21190724367280356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,23 +5372,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.32992193574357931</v>
+        <v>0.33652118992740387</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.8200789973118915E-2</v>
+        <v>9.916266069943569E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.30231928164822108</v>
+        <v>0.29277644568911143</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.9747553077391542</v>
+        <v>0.97426126263923718</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.63327515896503817</v>
+        <v>0.67103991996237633</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -4915,23 +5402,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.32992193574357931</v>
+        <v>0.33652118992740387</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.8200789973118915E-2</v>
+        <v>9.916266069943569E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.30231928164822108</v>
+        <v>0.29277644568911143</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.9747553077391542</v>
+        <v>0.97426126263923718</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.63327515896503817</v>
+        <v>0.67103991996237633</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,23 +5427,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.5252935174716943E-2</v>
+        <v>1.5301060277957867E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>4.248219114945149E-3</v>
+        <v>4.2645727642196506E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>2.7260987380089655E-2</v>
+        <v>2.8775114462813431E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>4.5255924227038914E-4</v>
+        <v>5.5644367773483386E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>6.511473389080269E-2</v>
+        <v>6.7741310158834375E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -4993,111 +5480,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>6.0797828227290001E-6</v>
+        <v>1.3490372855171663E-6</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>2.786250648129658E-7</v>
+        <v>2.2582633631439988E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>1.1618028286026795E-4</v>
+        <v>2.3326622558437419E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>4.2418297308211092E-10</v>
+        <v>4.9331946575804961E-8</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>1.1827711813913574E-3</v>
+        <v>2.0130850762130016E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>2.4466503943251531E-5</v>
+        <v>7.1818092492344933E-8</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>5.0423069459397289E-6</v>
+        <v>5.9002605733208831E-7</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>3.9881912873534504E-6</v>
+        <v>4.3180711252276693E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>7.2654912059673547E-8</v>
+        <v>8.1753398449745132E-8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>6.219944031202523E-4</v>
+        <v>5.8011359582862111E-9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>8.3885762101541671E-6</v>
+        <v>1.4572311563650381E-5</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.7872777243445021E-6</v>
+        <v>2.1550207465637426E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>2.2568481219413338E-5</v>
+        <v>2.9939017128087531E-8</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>6.8874222910178142E-9</v>
+        <v>1.132854795342856E-8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.454123974600879E-3</v>
+        <v>1.2069553114596916E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>2.6507142630330949E-5</v>
+        <v>4.0704749610219771E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>2.3927220690419471E-6</v>
+        <v>6.7356527039986398E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>6.9719340162563637E-6</v>
+        <v>6.7391242623906636E-7</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>1.2128084167574906E-7</v>
+        <v>1.5990423467920899E-7</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>1.0594535717020227E-4</v>
+        <v>1.278443997072635E-5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1.6721002583765173E-4</v>
+        <v>1.774245290778204E-4</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>6.5464338444461984E-6</v>
+        <v>6.4476179902855629E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>5.9345254355411639E-4</v>
+        <v>5.8971906419504571E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>3.5625087648262496E-9</v>
+        <v>7.3114388328799117E-9</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>8.7509365338735601E-4</v>
+        <v>1.3560544732560188E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,23 +5593,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.5252935174716943E-2</v>
+        <v>1.5301060277957867E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>4.248219114945149E-3</v>
+        <v>4.2645727642196506E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>2.7260987380089655E-2</v>
+        <v>2.8775114462813431E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>4.5255924227038914E-4</v>
+        <v>5.5644367773483386E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>6.511473389080269E-2</v>
+        <v>6.7741310158834375E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -5155,27 +5642,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.32992193574357931</v>
+        <v>0.33652118992740387</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.8200789973118915E-2</v>
+        <v>9.916266069943569E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.30231928164822108</v>
+        <v>0.29277644568911143</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.5252935174716943E-2</v>
+        <v>1.5301060277957867E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>4.248219114945149E-3</v>
+        <v>4.2645727642196506E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>2.7260987380089655E-2</v>
+        <v>2.8775114462813431E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5676,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5274,31 +5761,31 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>8.5220431419636922E-2</v>
+        <v>0.30266133478275742</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.542104272942221E-2</v>
+        <v>0.12579823750356794</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.1061583688676587</v>
+        <v>0.37702265858797718</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.38386225489402787</v>
+        <v>1.3632911791640459</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.28852580304232367</v>
+        <v>1.0247026823656122</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,31 +5814,31 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.51709958815360979</v>
+        <v>0.11825739182848265</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.21914218262330831</v>
+        <v>5.0116425443632526E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.65362249515051984</v>
+        <v>0.14947931363264605</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.1564518610155821</v>
+        <v>0.49316684547740353</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.4983573101162522</v>
+        <v>0.34266480109601694</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,31 +5867,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.30248708017014048</v>
+        <v>0.10823751696204435</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1251617401323421</v>
+        <v>4.4786031730523659E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.42128952273183318</v>
+        <v>0.15074803141003584</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3623433133819276</v>
+        <v>0.48748084515663903</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.76445073391347262</v>
+        <v>0.27353977972238203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,31 +5920,31 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.12000322025430117</v>
+        <v>0.52473350554362774</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>4.9888972804904355E-2</v>
+        <v>0.21814760914259618</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.16658781770690795</v>
+        <v>0.72843219857740027</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49282647630594473</v>
+        <v>2.1549635417176489</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.30421967032914743</v>
+        <v>1.3302497527054373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,31 +5973,31 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10528760140815564</v>
+        <v>8.2850098001271993E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.3925719174864236E-2</v>
+        <v>3.4564849894395594E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.1776471899128208</v>
+        <v>0.13978936643139928</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48692515468022179</v>
+        <v>0.38315809501778625</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28031848074270249</v>
+        <v>0.22058070741937907</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,23 +6020,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.22601958428116881</v>
+        <v>0.22734796942363683</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.4707931492968231E-2</v>
+        <v>9.4682630742943183E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.30506107887394807</v>
+        <v>0.30909431372789176</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.97648181205554074</v>
+        <v>0.97641210130670475</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.62717439962877974</v>
+        <v>0.63834754466176558</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -5563,23 +6050,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.22601958428116881</v>
+        <v>0.22734796942363683</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.4707931492968231E-2</v>
+        <v>9.4682630742943183E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.30506107887394807</v>
+        <v>0.30909431372789176</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.97648181205554074</v>
+        <v>0.97641210130670475</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.62717439962877974</v>
+        <v>0.63834754466176558</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,23 +6075,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>9.7334429940532357E-3</v>
+        <v>1.0614258311461575E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>4.857817070542416E-3</v>
+        <v>4.5813037884192423E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>2.1320887219147412E-2</v>
+        <v>2.8349443787261973E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>4.9127253708374375E-4</v>
+        <v>7.839101357276036E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>6.5585072278290732E-2</v>
+        <v>6.7833826216246187E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -5641,111 +6128,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>6.3604406410790168E-6</v>
+        <v>2.9750166303810388E-5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>1.5942942322687459E-6</v>
+        <v>5.5987414375628031E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>9.4678284855542166E-5</v>
+        <v>4.1890760957211364E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>8.70270263838398E-8</v>
+        <v>3.5136905666624405E-7</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>9.0891780904362601E-4</v>
+        <v>2.5923235904116875E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>2.9074287279425539E-5</v>
+        <v>4.6499832073777785E-6</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>9.0059773533324132E-6</v>
+        <v>2.0827554596417567E-6</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>3.6687406593372289E-5</v>
+        <v>1.7459636335718649E-5</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>3.0003968230737357E-9</v>
+        <v>1.6309836243719706E-11</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>1.160310182196173E-3</v>
+        <v>1.6227066995683692E-4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>2.3220797294713972E-5</v>
+        <v>1.0904501746138313E-5</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>6.8673605632232396E-6</v>
+        <v>2.432319431709509E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>2.4762735646873581E-6</v>
+        <v>4.9084358196325074E-6</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>3.8808088780791683E-8</v>
+        <v>1.9561982797670955E-8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.742202062607923E-3</v>
+        <v>8.1212978657922436E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.3521579844413757E-5</v>
+        <v>4.6327500628704039E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>1.6692812511112649E-6</v>
+        <v>7.390345126500243E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>6.1923661393761939E-5</v>
+        <v>1.8973887123336847E-4</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>5.7780821286359915E-8</v>
+        <v>2.0822617355484488E-7</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>6.2446957863343647E-5</v>
+        <v>5.7362006863995998E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>2.2562807458851743E-5</v>
+        <v>2.1030327616400595E-5</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>4.461473290917633E-6</v>
+        <v>3.4841829463701905E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>2.5881460540423971E-4</v>
+        <v>1.7267641008629313E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>5.4732372418633245E-8</v>
+        <v>3.5341578041466323E-8</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>4.2752469403755375E-4</v>
+        <v>4.6108386354818011E-4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,23 +6241,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>9.7334429940532357E-3</v>
+        <v>1.0614258311461575E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>4.857817070542416E-3</v>
+        <v>4.5813037884192423E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>2.1320887219147412E-2</v>
+        <v>2.8349443787261973E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>4.9127253708374375E-4</v>
+        <v>7.839101357276036E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>6.5585072278290732E-2</v>
+        <v>6.7833826216246187E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -5803,27 +6290,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.22601958428116881</v>
+        <v>0.22734796942363683</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.4707931492968231E-2</v>
+        <v>9.4682630742943183E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.30506107887394807</v>
+        <v>0.30909431372789176</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>9.7334429940532357E-3</v>
+        <v>1.0614258311461575E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>4.857817070542416E-3</v>
+        <v>4.5813037884192423E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>2.1320887219147412E-2</v>
+        <v>2.8349443787261973E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6324,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5922,31 +6409,31 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>0.13070452454345213</v>
+        <v>0.46419861060866985</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.5271584601171038E-2</v>
+        <v>0.12526743525536194</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.10713747516433343</v>
+        <v>0.380499965774872</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.38388451392626866</v>
+        <v>1.3633702323710848</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.28642333359433436</v>
+        <v>1.0172357381262078</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,31 +6462,31 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.74792131302728559</v>
+        <v>0.1710448544106494</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.21399593855135896</v>
+        <v>4.893951210700706E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.67050181298542411</v>
+        <v>0.15333950642476793</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.158285856962658</v>
+        <v>0.49358626870320743</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.460503811780004</v>
+        <v>0.33400794642550269</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,31 +6515,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.4608353247733592</v>
+        <v>0.16489851815756817</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1251617401323421</v>
+        <v>4.4786031730523659E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.42128952273183318</v>
+        <v>0.15074803141003584</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3623433133819276</v>
+        <v>0.48748084515663903</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.76445073391347262</v>
+        <v>0.27353977972238203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,31 +6568,31 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.17421138970576211</v>
+        <v>0.76176750117382896</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>4.9409987778563084E-2</v>
+        <v>0.21605316958137155</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.16598710133683209</v>
+        <v>0.72580546901098231</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49299377335706906</v>
+        <v>2.1556950751541484</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.30443755346220752</v>
+        <v>1.331202481973595</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,31 +6621,31 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14552455650777396</v>
+        <v>0.114512284514127</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.355869702831576E-2</v>
+        <v>3.427604266160187E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.17644242647776265</v>
+        <v>0.13884134627206468</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48707168698468029</v>
+        <v>0.38327340029231394</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28030113975707677</v>
+        <v>0.22056706191564149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,23 +6678,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.33183942171152658</v>
+        <v>0.33528435377296872</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.3479589618350192E-2</v>
+        <v>9.3864438267173222E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.30827166773923709</v>
+        <v>0.30984686377854453</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.9769158289225206</v>
+        <v>0.97668116433547869</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.6192233145014191</v>
+        <v>0.63531060163266573</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -6221,23 +6708,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.33183942171152658</v>
+        <v>0.33528435377296872</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.3479589618350192E-2</v>
+        <v>9.3864438267173222E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.30827166773923709</v>
+        <v>0.30984686377854453</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.9769158289225206</v>
+        <v>0.97668116433547869</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.6192233145014191</v>
+        <v>0.63531060163266573</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,23 +6733,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>1.413654038672813E-2</v>
+        <v>1.3995392446789082E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>3.9775888137323651E-3</v>
+        <v>4.1837552399957975E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>1.9122395679950312E-2</v>
+        <v>2.6421222171188065E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>4.8208248137881446E-4</v>
+        <v>6.8514260944001735E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>5.9177594094378561E-2</v>
+        <v>6.4729562720818506E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -6299,111 +6786,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>8.0053250259720501E-8</v>
+        <v>1.6542457296992197E-6</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>1.0507904677850498E-6</v>
+        <v>4.5584914917131596E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>9.8630193172608222E-5</v>
+        <v>3.8211839433694827E-4</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>3.5818655061540547E-8</v>
+        <v>2.3097608964531271E-7</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>9.5333072489115465E-4</v>
+        <v>2.4692054060791867E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>2.0453627583701602E-5</v>
+        <v>1.1403427806679946E-6</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>5.1471663913709117E-6</v>
+        <v>9.2666845989336278E-7</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>9.6808579840971894E-6</v>
+        <v>3.9544639983527808E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>4.3541219982071717E-8</v>
+        <v>3.0405520753893926E-8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>7.8157533961828592E-4</v>
+        <v>6.8167413508581732E-5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>5.482571440547236E-7</v>
+        <v>2.344724892791301E-6</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.8881415787607414E-6</v>
+        <v>1.6928746442033456E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>1.0687902530977962E-5</v>
+        <v>6.0184135399959133E-6</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>1.0381879056845645E-9</v>
+        <v>3.0097781201426723E-9</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>1.4092864374432021E-3</v>
+        <v>7.5836657225848074E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.7267026183490718E-5</v>
+        <v>4.0955901832251634E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>1.907178257630411E-6</v>
+        <v>6.9275980643102082E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>4.1870235720070298E-5</v>
+        <v>1.5584941922965604E-4</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>7.455482373567714E-8</v>
+        <v>1.7222897899852458E-7</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>2.7437906639788217E-5</v>
+        <v>4.6851744603086708E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1.6149280994408874E-4</v>
+        <v>1.4977579450423074E-4</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>3.8279360755817243E-6</v>
+        <v>3.3981752480722201E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>2.0479682713282868E-4</v>
+        <v>1.5014028991432673E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>7.7450632167381028E-8</v>
+        <v>3.2800027752402209E-8</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>3.3035723420659762E-4</v>
+        <v>4.256594521512606E-4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,23 +6899,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>1.413654038672813E-2</v>
+        <v>1.3995392446789082E-2</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>3.9775888137323651E-3</v>
+        <v>4.1837552399957975E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>1.9122395679950312E-2</v>
+        <v>2.6421222171188065E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>4.8208248137881446E-4</v>
+        <v>6.8514260944001735E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>5.9177594094378561E-2</v>
+        <v>6.4729562720818506E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -6461,27 +6948,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.33183942171152658</v>
+        <v>0.33528435377296872</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.3479589618350192E-2</v>
+        <v>9.3864438267173222E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.30827166773923709</v>
+        <v>0.30984686377854453</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>1.413654038672813E-2</v>
+        <v>1.3995392446789082E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>3.9775888137323651E-3</v>
+        <v>4.1837552399957975E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>1.9122395679950312E-2</v>
+        <v>2.6421222171188065E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6495,7 +6982,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6580,31 +7067,31 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>1621</v>
+        <v>5757</v>
       </c>
       <c r="L2" s="1">
         <f>K2/K$7</f>
-        <v>7.8536821705426363E-2</v>
+        <v>0.27892441860465117</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:Q6" si="0">C2*$L2*5</f>
-        <v>8.3933378101364114E-2</v>
+        <v>0.29809035023414759</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>3.6086774428944444E-2</v>
+        <v>0.12816259123222279</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11842709615288424</v>
+        <v>0.42059518356086034</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.38359765150836</v>
+        <v>1.3623514372200052</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>0.26227627559768529</v>
+        <v>0.93147718606778163</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,31 +7120,31 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>9117</v>
+        <v>2085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">K3/K$7</f>
-        <v>0.44171511627906979</v>
+        <v>0.10101744186046512</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.50111356145654717</v>
+        <v>0.11460148904649566</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.21546769757273426</v>
+        <v>4.9276094048387724E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.68629322183851471</v>
+        <v>0.15695090134181233</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.1582622548712029</v>
+        <v>0.49358087105478315</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>1.4450143685126258</v>
+        <v>0.33046560912019574</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,31 +7173,31 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>5757</v>
+        <v>2060</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>0.27892441860465117</v>
+        <v>9.9806201550387594E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29715313521126874</v>
+        <v>0.10632889674052694</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12772433633169705</v>
+        <v>4.5702993372120186E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.42929316006863449</v>
+        <v>0.15361193499068732</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3615131020738171</v>
+        <v>0.48718377458260609</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.7764780732196509</v>
+        <v>0.27784346549113792</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,31 +7226,31 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>2085</v>
+        <v>9117</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10101744186046512</v>
+        <v>0.44171511627906979</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>0.11528770838529843</v>
+        <v>0.50411416659413233</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>4.8524801765974901E-2</v>
+        <v>0.21218255045582407</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0.16410142775339573</v>
+        <v>0.71756005603247419</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0.49347586308850494</v>
+        <v>2.1578030905409591</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29368117811093652</v>
+        <v>1.2841684896102676</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,31 +7279,31 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2060</v>
+        <v>1621</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9.9806201550387594E-2</v>
+        <v>7.8536821705426363E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10467796377169603</v>
+        <v>8.2370378288310342E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>4.501410886711233E-2</v>
+        <v>3.5421296346402474E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.18812545895623189</v>
+        <v>0.14803464513012232</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0.48650736608378042</v>
+        <v>0.38282934001058644</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.27305592298131165</v>
+        <v>0.2148658500741292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,23 +7336,23 @@
       </c>
       <c r="C8" s="1">
         <f>M8</f>
-        <v>0.22043314938523489</v>
+        <v>0.22110105618072257</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:G8" si="2">N8</f>
-        <v>9.4563543793292598E-2</v>
+        <v>9.4149105090991447E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.31724807295393215</v>
+        <v>0.31935054421119136</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.97667124752513312</v>
+        <v>0.97674970268178785</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.610101163684442</v>
+        <v>0.60776412007270253</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
@@ -6879,23 +7366,23 @@
       </c>
       <c r="M8" s="1">
         <f>AVERAGE(M2:M6)</f>
-        <v>0.22043314938523489</v>
+        <v>0.22110105618072257</v>
       </c>
       <c r="N8" s="1">
         <f>AVERAGE(N2:N6)</f>
-        <v>9.4563543793292598E-2</v>
+        <v>9.4149105090991447E-2</v>
       </c>
       <c r="O8" s="1">
         <f>AVERAGE(O2:O6)</f>
-        <v>0.31724807295393215</v>
+        <v>0.31935054421119136</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="3">AVERAGE(P2:P6)</f>
-        <v>0.97667124752513312</v>
+        <v>0.97674970268178785</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>0.610101163684442</v>
+        <v>0.60776412007270253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,23 +7391,23 @@
       </c>
       <c r="C9" s="1">
         <f>M17</f>
-        <v>7.3903482506545073E-3</v>
+        <v>7.5908025674341038E-3</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:G9" si="4">N17</f>
-        <v>3.0212175380100429E-3</v>
+        <v>2.4702494050567948E-3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
-        <v>2.0610600965653373E-2</v>
+        <v>1.9576521638887776E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>7.113625363105757E-4</v>
+        <v>5.8940607994074944E-4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>4.8948510503988241E-2</v>
+        <v>4.5621008243828573E-2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -6957,111 +7444,111 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="1">
         <f t="shared" ref="M11:Q15" si="5">(C2-M$8)^2*$L2</f>
-        <v>3.5154299353611068E-6</v>
+        <v>1.5102303345106648E-5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>5.581308860640319E-7</v>
+        <v>1.4137933550175864E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>1.9270971971083853E-5</v>
+        <v>8.8046255013839097E-5</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>2.8172238453130858E-9</v>
+        <v>3.433052439034686E-9</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>2.6242756868074488E-4</v>
+        <v>1.0088997536417405E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>1.8440952589668814E-5</v>
+        <v>3.3905004193193906E-6</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>3.9649275399122418E-6</v>
+        <v>1.174965455462319E-6</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>1.8707689567646699E-5</v>
+        <v>7.4892307565026814E-6</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>1.3258024133441932E-7</v>
+        <v>2.2258116663468265E-8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>8.6190590198632509E-4</v>
+        <v>2.185211467771924E-4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>1.5119195249153773E-5</v>
+        <v>6.4361305924730934E-6</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>2.4770762704833319E-6</v>
+        <v>6.5697056865309616E-7</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>2.4790974665187421E-5</v>
+        <v>1.3268609409283725E-5</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>4.7281997470148882E-8</v>
+        <v>2.398085230520282E-8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>7.934414122716003E-4</v>
+        <v>2.5957745691004115E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>6.1773406106491244E-6</v>
+        <v>2.2594331240327048E-5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>2.2989739314132319E-7</v>
+        <v>1.6334658282637286E-6</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>5.9104676544113753E-6</v>
+        <v>1.3589612670689021E-5</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>1.1674708651127208E-8</v>
+        <v>3.0206053860989813E-8</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>8.2944522941273859E-5</v>
+        <v>3.0594000375209259E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1.1364328881119321E-5</v>
+        <v>1.0097018020538009E-5</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>1.8977233223785369E-6</v>
+        <v>1.2229369157867197E-6</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>3.5611676830706241E-4</v>
+        <v>2.6084649162752684E-4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>3.1168248676520661E-7</v>
+        <v>2.6752145180242557E-7</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>3.9523727467910335E-4</v>
+        <v>2.8833803210240772E-4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,23 +7557,23 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M17" s="1">
         <f>SQRT(SUM(M11:M15))</f>
-        <v>7.3903482506545073E-3</v>
+        <v>7.5908025674341038E-3</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ref="N17:O17" si="6">SQRT(SUM(N11:N15))</f>
-        <v>3.0212175380100429E-3</v>
+        <v>2.4702494050567948E-3</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>2.0610600965653373E-2</v>
+        <v>1.9576521638887776E-2</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ref="P17:Q17" si="7">SQRT(SUM(P11:P15))</f>
-        <v>7.113625363105757E-4</v>
+        <v>5.8940607994074944E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>4.8948510503988241E-2</v>
+        <v>4.5621008243828573E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -7119,27 +7606,27 @@
       </c>
       <c r="C21" s="1">
         <f>M8</f>
-        <v>0.22043314938523489</v>
+        <v>0.22110105618072257</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:E21" si="8">N8</f>
-        <v>9.4563543793292598E-2</v>
+        <v>9.4149105090991447E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>0.31724807295393215</v>
+        <v>0.31935054421119136</v>
       </c>
       <c r="F21" s="1">
         <f>M17</f>
-        <v>7.3903482506545073E-3</v>
+        <v>7.5908025674341038E-3</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H21" si="9">N17</f>
-        <v>3.0212175380100429E-3</v>
+        <v>2.4702494050567948E-3</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="9"/>
-        <v>2.0610600965653373E-2</v>
+        <v>1.9576521638887776E-2</v>
       </c>
     </row>
   </sheetData>
